--- a/weo_data_dirty_labels.xlsx
+++ b/weo_data_dirty_labels.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="59">
   <si>
     <t>Country</t>
   </si>
@@ -191,12 +191,6 @@
   <si>
     <t>2014</t>
   </si>
-  <si>
-    <t>duplicated_n</t>
-  </si>
-  <si>
-    <t>nmiss</t>
-  </si>
 </sst>
 </file>
 
@@ -241,7 +235,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM58"/>
+  <dimension ref="A1:AK58"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -356,12 +350,6 @@
       <c r="AK1" t="s">
         <v>58</v>
       </c>
-      <c r="AL1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -475,12 +463,6 @@
       <c r="AK2" s="1">
         <v>36114.769999999997</v>
       </c>
-      <c r="AL2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM2" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -594,12 +576,6 @@
       <c r="AK3" s="1">
         <v>5.633</v>
       </c>
-      <c r="AL3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM3" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -713,12 +689,6 @@
       <c r="AK4" s="1">
         <v>8.5079999999999991</v>
       </c>
-      <c r="AL4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM4" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -832,12 +802,6 @@
       <c r="AK5" s="1">
         <v>35117.220000000001</v>
       </c>
-      <c r="AL5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -951,12 +915,6 @@
       <c r="AK6" s="1">
         <v>8.4920000000000009</v>
       </c>
-      <c r="AL6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -1070,12 +1028,6 @@
       <c r="AK7" s="1">
         <v>11.204000000000001</v>
       </c>
-      <c r="AL7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -1189,12 +1141,6 @@
       <c r="AK8" s="1">
         <v>16843.650000000001</v>
       </c>
-      <c r="AL8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -1304,12 +1250,6 @@
       <c r="AK9" s="1">
         <v>16.125</v>
       </c>
-      <c r="AL9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="1">
-        <v>2</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -1422,12 +1362,6 @@
       </c>
       <c r="AK10" s="1">
         <v>0.89100000000000001</v>
-      </c>
-      <c r="AL10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1516,12 +1450,6 @@
       <c r="AK11" s="1">
         <v>13194.26</v>
       </c>
-      <c r="AL11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="1">
-        <v>13</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1609,12 +1537,6 @@
       <c r="AK12" s="1">
         <v>7.351</v>
       </c>
-      <c r="AL12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="1">
-        <v>13</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1702,12 +1624,6 @@
       <c r="AK13" s="1">
         <v>1.319</v>
       </c>
-      <c r="AL13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="1">
-        <v>13</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1821,12 +1737,6 @@
       <c r="AK14" s="1">
         <v>34174.610000000001</v>
       </c>
-      <c r="AL14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM14" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1940,12 +1850,6 @@
       <c r="AK15" s="1">
         <v>8.6829999999999998</v>
       </c>
-      <c r="AL15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM15" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -2059,12 +1963,6 @@
       <c r="AK16" s="1">
         <v>5.4509999999999996</v>
       </c>
-      <c r="AL16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -2178,12 +2076,6 @@
       <c r="AK17" s="1">
         <v>32241.299999999999</v>
       </c>
-      <c r="AL17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM17" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -2297,12 +2189,6 @@
       <c r="AK18" s="1">
         <v>10.308</v>
       </c>
-      <c r="AL18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM18" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -2416,12 +2302,6 @@
       <c r="AK19" s="1">
         <v>63.920000000000002</v>
       </c>
-      <c r="AL19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM19" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -2535,12 +2415,6 @@
       <c r="AK20" s="1">
         <v>33714.669999999998</v>
       </c>
-      <c r="AL20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM20" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -2654,12 +2528,6 @@
       <c r="AK21" s="1">
         <v>5</v>
       </c>
-      <c r="AL21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM21" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -2773,12 +2641,6 @@
       <c r="AK22" s="1">
         <v>81.099999999999994</v>
       </c>
-      <c r="AL22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM22" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -2892,12 +2754,6 @@
       <c r="AK23" s="1">
         <v>16969.669999999998</v>
       </c>
-      <c r="AL23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM23" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -3011,12 +2867,6 @@
       <c r="AK24" s="1">
         <v>26.491</v>
       </c>
-      <c r="AL24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM24" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -3130,12 +2980,6 @@
       <c r="AK25" s="1">
         <v>10.993</v>
       </c>
-      <c r="AL25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM25" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -3248,12 +3092,6 @@
       </c>
       <c r="AK26" s="1">
         <v>40953.190000000002</v>
-      </c>
-      <c r="AL26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM26" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -3358,12 +3196,6 @@
       <c r="AK27" s="1">
         <v>11.263</v>
       </c>
-      <c r="AL27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM27" s="1">
-        <v>5</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -3477,12 +3309,6 @@
       <c r="AK28" s="1">
         <v>4.6100000000000003</v>
       </c>
-      <c r="AL28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM28" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -3596,12 +3422,6 @@
       <c r="AK29" s="1">
         <v>25288.869999999999</v>
       </c>
-      <c r="AL29" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM29" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -3715,12 +3535,6 @@
       <c r="AK30" s="1">
         <v>12.667</v>
       </c>
-      <c r="AL30" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM30" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -3833,12 +3647,6 @@
       </c>
       <c r="AK31" s="1">
         <v>60.783000000000001</v>
-      </c>
-      <c r="AL31" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM31" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3927,12 +3735,6 @@
       <c r="AK32" s="1">
         <v>10495.84</v>
       </c>
-      <c r="AL32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM32" s="1">
-        <v>13</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -4020,12 +3822,6 @@
       <c r="AK33" s="1">
         <v>10.843</v>
       </c>
-      <c r="AL33" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM33" s="1">
-        <v>13</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -4112,12 +3908,6 @@
       </c>
       <c r="AK34" s="1">
         <v>2.0329999999999999</v>
-      </c>
-      <c r="AL34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM34" s="1">
-        <v>13</v>
       </c>
     </row>
     <row r="35">
@@ -4194,12 +3984,6 @@
       <c r="AK35" s="1">
         <v>11185.08</v>
       </c>
-      <c r="AL35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM35" s="1">
-        <v>19</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -4275,12 +4059,6 @@
       <c r="AK36" s="1">
         <v>10.699</v>
       </c>
-      <c r="AL36" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM36" s="1">
-        <v>19</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -4356,12 +4134,6 @@
       <c r="AK37" s="1">
         <v>2.9319999999999999</v>
       </c>
-      <c r="AL37" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM37" s="1">
-        <v>19</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
@@ -4475,12 +4247,6 @@
       <c r="AK38" s="1">
         <v>80763.509999999995</v>
       </c>
-      <c r="AL38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM38" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -4594,12 +4360,6 @@
       <c r="AK39" s="1">
         <v>7.1520000000000001</v>
       </c>
-      <c r="AL39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM39" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
@@ -4712,12 +4472,6 @@
       </c>
       <c r="AK40" s="1">
         <v>0.55000000000000004</v>
-      </c>
-      <c r="AL40" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM40" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -4792,12 +4546,6 @@
       <c r="AK41" s="1">
         <v>17184.939999999999</v>
       </c>
-      <c r="AL41" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM41" s="1">
-        <v>20</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
@@ -4905,12 +4653,6 @@
       <c r="AK42" s="1">
         <v>5.867</v>
       </c>
-      <c r="AL42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM42" s="1">
-        <v>3</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
@@ -5024,12 +4766,6 @@
       <c r="AK43" s="1">
         <v>0.42499999999999999</v>
       </c>
-      <c r="AL43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM43" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
@@ -5143,12 +4879,6 @@
       <c r="AK44" s="1">
         <v>37861.599999999999</v>
       </c>
-      <c r="AL44" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM44" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
@@ -5262,12 +4992,6 @@
       <c r="AK45" s="1">
         <v>7.3949999999999996</v>
       </c>
-      <c r="AL45" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM45" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
@@ -5381,12 +5105,6 @@
       <c r="AK46" s="1">
         <v>16.864000000000001</v>
       </c>
-      <c r="AL46" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM46" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
@@ -5500,12 +5218,6 @@
       <c r="AK47" s="1">
         <v>16147.700000000001</v>
       </c>
-      <c r="AL47" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM47" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
@@ -5619,12 +5331,6 @@
       <c r="AK48" s="1">
         <v>13.894</v>
       </c>
-      <c r="AL48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM48" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
@@ -5737,12 +5443,6 @@
       </c>
       <c r="AK49" s="1">
         <v>10.394</v>
-      </c>
-      <c r="AL49" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM49" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -5831,12 +5531,6 @@
       <c r="AK50" s="1">
         <v>13445.83</v>
       </c>
-      <c r="AL50" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM50" s="1">
-        <v>13</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
@@ -5924,12 +5618,6 @@
       <c r="AK51" s="1">
         <v>13.217000000000001</v>
       </c>
-      <c r="AL51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM51" s="1">
-        <v>13</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
@@ -6017,12 +5705,6 @@
       <c r="AK52" s="1">
         <v>5.4169999999999998</v>
       </c>
-      <c r="AL52" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM52" s="1">
-        <v>13</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
@@ -6112,12 +5794,6 @@
       <c r="AK53" s="1">
         <v>17559.25</v>
       </c>
-      <c r="AL53" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM53" s="1">
-        <v>12</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
@@ -6207,12 +5883,6 @@
       <c r="AK54" s="1">
         <v>9.7330000000000005</v>
       </c>
-      <c r="AL54" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM54" s="1">
-        <v>12</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
@@ -6302,12 +5972,6 @@
       <c r="AK55" s="1">
         <v>2.0609999999999999</v>
       </c>
-      <c r="AL55" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM55" s="1">
-        <v>12</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
@@ -6421,12 +6085,6 @@
       <c r="AK56" s="1">
         <v>22669.049999999999</v>
       </c>
-      <c r="AL56" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM56" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
@@ -6540,12 +6198,6 @@
       <c r="AK57" s="1">
         <v>24.449999999999999</v>
       </c>
-      <c r="AL57" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM57" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
@@ -6659,12 +6311,6 @@
       <c r="AK58" s="1">
         <v>46.463999999999999</v>
       </c>
-      <c r="AL58" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM58" s="1">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
 </worksheet>
